--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N2">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O2">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P2">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q2">
-        <v>1208.358498494182</v>
+        <v>338.8407189764337</v>
       </c>
       <c r="R2">
-        <v>10875.22648644763</v>
+        <v>3049.566470787904</v>
       </c>
       <c r="S2">
-        <v>0.00121856772073094</v>
+        <v>0.0001174656697259476</v>
       </c>
       <c r="T2">
-        <v>0.00121856772073094</v>
+        <v>0.0001174656697259476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N3">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O3">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P3">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q3">
-        <v>419.8904819199378</v>
+        <v>424.9288343756316</v>
       </c>
       <c r="R3">
-        <v>3779.01433727944</v>
+        <v>3824.359509380684</v>
       </c>
       <c r="S3">
-        <v>0.0004234380675498335</v>
+        <v>0.000147309775125555</v>
       </c>
       <c r="T3">
-        <v>0.0004234380675498335</v>
+        <v>0.000147309775125555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N4">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O4">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P4">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q4">
-        <v>71273.63759109327</v>
+        <v>584981.4891324695</v>
       </c>
       <c r="R4">
-        <v>641462.7383198395</v>
+        <v>5264833.402192227</v>
       </c>
       <c r="S4">
-        <v>0.07187581683400539</v>
+        <v>0.2027951144886067</v>
       </c>
       <c r="T4">
-        <v>0.07187581683400539</v>
+        <v>0.2027951144886067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N5">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O5">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P5">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q5">
-        <v>173.4120859905677</v>
+        <v>174.7690928472422</v>
       </c>
       <c r="R5">
-        <v>1560.708773915109</v>
+        <v>1572.92183562518</v>
       </c>
       <c r="S5">
-        <v>0.0001748772161871309</v>
+        <v>6.058707643140564E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001748772161871308</v>
+        <v>6.058707643140564E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N6">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O6">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P6">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q6">
-        <v>122600.8517387178</v>
+        <v>226251.1560415056</v>
       </c>
       <c r="R6">
-        <v>1103407.66564846</v>
+        <v>2036260.404373551</v>
       </c>
       <c r="S6">
-        <v>0.1236366861730981</v>
+        <v>0.0784343264616132</v>
       </c>
       <c r="T6">
-        <v>0.1236366861730981</v>
+        <v>0.0784343264616132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N7">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O7">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P7">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q7">
-        <v>1450.756033689142</v>
+        <v>401.9888501682044</v>
       </c>
       <c r="R7">
-        <v>13056.80430320228</v>
+        <v>3617.89965151384</v>
       </c>
       <c r="S7">
-        <v>0.001463013232837994</v>
+        <v>0.0001393571872058738</v>
       </c>
       <c r="T7">
-        <v>0.001463013232837994</v>
+        <v>0.0001393571872058738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N8">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O8">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P8">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q8">
         <v>504.1207976714739</v>
       </c>
       <c r="R8">
-        <v>4537.087179043265</v>
+        <v>4537.087179043266</v>
       </c>
       <c r="S8">
-        <v>0.0005083800313873071</v>
+        <v>0.0001747631964072687</v>
       </c>
       <c r="T8">
-        <v>0.0005083800313873071</v>
+        <v>0.0001747631964072687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N9">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O9">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P9">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q9">
-        <v>85571.17768204259</v>
+        <v>694001.7035036465</v>
       </c>
       <c r="R9">
-        <v>770140.5991383833</v>
+        <v>6246015.331532819</v>
       </c>
       <c r="S9">
-        <v>0.08629415448992352</v>
+        <v>0.2405890742389617</v>
       </c>
       <c r="T9">
-        <v>0.08629415448992352</v>
+        <v>0.2405890742389617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N10">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O10">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P10">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q10">
-        <v>208.1986681758317</v>
+        <v>207.3399764078805</v>
       </c>
       <c r="R10">
-        <v>1873.788013582485</v>
+        <v>1866.059787670925</v>
       </c>
       <c r="S10">
-        <v>0.0002099577044845538</v>
+        <v>7.187840134233623E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002099577044845538</v>
+        <v>7.187840134233623E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N11">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O11">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P11">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q11">
-        <v>147194.6658355291</v>
+        <v>268416.5065553335</v>
       </c>
       <c r="R11">
-        <v>1324751.992519762</v>
+        <v>2415748.558998001</v>
       </c>
       <c r="S11">
-        <v>0.1484382893607105</v>
+        <v>0.09305175836973224</v>
       </c>
       <c r="T11">
-        <v>0.1484382893607105</v>
+        <v>0.09305175836973224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N12">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O12">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P12">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q12">
-        <v>1966.531127728105</v>
+        <v>186.7527001001973</v>
       </c>
       <c r="R12">
-        <v>17698.78014955295</v>
+        <v>1680.774300901776</v>
       </c>
       <c r="S12">
-        <v>0.001983146025826226</v>
+        <v>6.474142498772245E-05</v>
       </c>
       <c r="T12">
-        <v>0.001983146025826226</v>
+        <v>6.474142498772245E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N13">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O13">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P13">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q13">
-        <v>683.3466259899762</v>
+        <v>234.2003269553857</v>
       </c>
       <c r="R13">
-        <v>6150.119633909787</v>
+        <v>2107.802942598471</v>
       </c>
       <c r="S13">
-        <v>0.0006891201092552196</v>
+        <v>8.119005985748611E-05</v>
       </c>
       <c r="T13">
-        <v>0.0006891201092552196</v>
+        <v>8.119005985748611E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N14">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O14">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P14">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q14">
-        <v>115993.5789618414</v>
+        <v>322413.6489089465</v>
       </c>
       <c r="R14">
-        <v>1043942.210656572</v>
+        <v>2901722.840180519</v>
       </c>
       <c r="S14">
-        <v>0.1169735896351094</v>
+        <v>0.1117709090934551</v>
       </c>
       <c r="T14">
-        <v>0.1169735896351094</v>
+        <v>0.1117709090934551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N15">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O15">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P15">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q15">
-        <v>282.2177900430071</v>
+        <v>96.32431450942167</v>
       </c>
       <c r="R15">
-        <v>2539.960110387063</v>
+        <v>866.918830584795</v>
       </c>
       <c r="S15">
-        <v>0.0002846022017397894</v>
+        <v>3.33926812247408E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002846022017397894</v>
+        <v>3.33926812247408E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N16">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O16">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P16">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q16">
-        <v>199525.5477001371</v>
+        <v>124698.7505491656</v>
       </c>
       <c r="R16">
-        <v>1795729.929301234</v>
+        <v>1122288.754942491</v>
       </c>
       <c r="S16">
-        <v>0.2012113062402724</v>
+        <v>0.04322922667468833</v>
       </c>
       <c r="T16">
-        <v>0.2012113062402724</v>
+        <v>0.04322922667468833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N17">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O17">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P17">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q17">
-        <v>148.2585602555233</v>
+        <v>54.611836086016</v>
       </c>
       <c r="R17">
-        <v>1334.32704229971</v>
+        <v>491.506524774144</v>
       </c>
       <c r="S17">
-        <v>0.0001495111724496997</v>
+        <v>1.893224616033737E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001495111724496997</v>
+        <v>1.893224616033738E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N18">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O18">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P18">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q18">
-        <v>51.51812015393178</v>
+        <v>68.486880565136</v>
       </c>
       <c r="R18">
-        <v>463.663081385386</v>
+        <v>616.3819250862241</v>
       </c>
       <c r="S18">
-        <v>5.195338827885244E-05</v>
+        <v>2.374229790718926E-05</v>
       </c>
       <c r="T18">
-        <v>5.195338827885243E-05</v>
+        <v>2.374229790718926E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N19">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O19">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P19">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q19">
-        <v>8744.860822841572</v>
+        <v>94282.9813794542</v>
       </c>
       <c r="R19">
-        <v>78703.74740557415</v>
+        <v>848546.8324150878</v>
       </c>
       <c r="S19">
-        <v>0.008818744713823568</v>
+        <v>0.03268501372843238</v>
       </c>
       <c r="T19">
-        <v>0.008818744713823566</v>
+        <v>0.03268501372843239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N20">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O20">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P20">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q20">
-        <v>21.27665442987934</v>
+        <v>28.16798724872</v>
       </c>
       <c r="R20">
-        <v>191.489889868914</v>
+        <v>253.51188523848</v>
       </c>
       <c r="S20">
-        <v>2.145641738416818E-05</v>
+        <v>9.764975995204907E-06</v>
       </c>
       <c r="T20">
-        <v>2.145641738416818E-05</v>
+        <v>9.764975995204909E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N21">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O21">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P21">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q21">
-        <v>15042.41149256145</v>
+        <v>36465.48468358576</v>
       </c>
       <c r="R21">
-        <v>135381.703433053</v>
+        <v>328189.3621522719</v>
       </c>
       <c r="S21">
-        <v>0.01516950235350686</v>
+        <v>0.01264146349700255</v>
       </c>
       <c r="T21">
-        <v>0.01516950235350686</v>
+        <v>0.01264146349700255</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N22">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O22">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P22">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q22">
-        <v>1349.656608342002</v>
+        <v>221.2686479186382</v>
       </c>
       <c r="R22">
-        <v>12146.90947507802</v>
+        <v>1991.417831267744</v>
       </c>
       <c r="S22">
-        <v>0.001361059635072102</v>
+        <v>7.670704393389462E-05</v>
       </c>
       <c r="T22">
-        <v>0.001361059635072102</v>
+        <v>7.670704393389462E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N23">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O23">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P23">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q23">
-        <v>468.9899267554832</v>
+        <v>277.4856248917305</v>
       </c>
       <c r="R23">
-        <v>4220.909340799349</v>
+        <v>2497.370624025574</v>
       </c>
       <c r="S23">
-        <v>0.0004729523455202906</v>
+        <v>9.619574313763976E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004729523455202905</v>
+        <v>9.619574313763976E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N24">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O24">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P24">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q24">
-        <v>79607.94424441674</v>
+        <v>382002.6812266783</v>
       </c>
       <c r="R24">
-        <v>716471.4981997507</v>
+        <v>3438024.131040104</v>
       </c>
       <c r="S24">
-        <v>0.08028053867364908</v>
+        <v>0.1324285963120043</v>
       </c>
       <c r="T24">
-        <v>0.08028053867364907</v>
+        <v>0.1324285963120043</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N25">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O25">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P25">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q25">
-        <v>193.6898429689557</v>
+        <v>114.1271361632478</v>
       </c>
       <c r="R25">
-        <v>1743.208586720601</v>
+        <v>1027.14422546923</v>
       </c>
       <c r="S25">
-        <v>0.0001953262965995108</v>
+        <v>3.956437267580199E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001953262965995108</v>
+        <v>3.956437267580199E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N26">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O26">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P26">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q26">
-        <v>136937.0513334584</v>
+        <v>147745.7831471978</v>
       </c>
       <c r="R26">
-        <v>1232433.462001125</v>
+        <v>1329712.048324781</v>
       </c>
       <c r="S26">
-        <v>0.1380940099605975</v>
+        <v>0.05121892498338506</v>
       </c>
       <c r="T26">
-        <v>0.1380940099605974</v>
+        <v>0.05121892498338506</v>
       </c>
     </row>
   </sheetData>
